--- a/data/awards.xlsx
+++ b/data/awards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Insync/rmaxsm@umich.edu/Google Drive/FF/TRUFFLE/TRUFFLEdashGIT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CC43E4-1346-4D40-861C-1C286E8AE3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E76C772-3F8A-4F4A-BFEC-AA8EC08E2E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="120">
   <si>
     <t>Season</t>
   </si>
@@ -42,9 +42,6 @@
     <t>TRUFFLE</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Champion</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>LVP</t>
   </si>
   <si>
-    <t>LeVeon Bell</t>
-  </si>
-  <si>
     <t>ELP</t>
   </si>
   <si>
@@ -222,9 +216,6 @@
     <t>Rashaad Penny</t>
   </si>
   <si>
-    <t>Saquon Barkley</t>
-  </si>
-  <si>
     <t>Cordarelle Patterson</t>
   </si>
   <si>
@@ -279,9 +270,6 @@
     <t>www/graphics/awardlogos/ROY.png</t>
   </si>
   <si>
-    <t>www/graphics/awardlogos/PlayoffsMVP</t>
-  </si>
-  <si>
     <t>www/graphics/awardlogos/LVP.png</t>
   </si>
   <si>
@@ -292,6 +280,111 @@
   </si>
   <si>
     <t>www/graphics/awardlogos/RFS.png</t>
+  </si>
+  <si>
+    <t>LeVeon Bell ($48)</t>
+  </si>
+  <si>
+    <t>James Robinson ($4)</t>
+  </si>
+  <si>
+    <t>Darren Waller $24)</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/CC.png</t>
+  </si>
+  <si>
+    <t>Saquon Barkley ($97)</t>
+  </si>
+  <si>
+    <t>Cordarelle Patterson ($15)</t>
+  </si>
+  <si>
+    <t>Deebo Samuel ($36)</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/GF.png</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/NN.png</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/WLW.png</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/FRR.png</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/ELP.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/dcook.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/jjefferson.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/akamara.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/jhurts.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/lbell.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/jrobinson.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/dwaller.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/jtaylor.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/jchase.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/nharris.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/rpenny.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/sbarkley.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/cpatterson.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/dsamuel.png</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>www/graphics/awardlogos/BenchCupMVP.png</t>
+  </si>
+  <si>
+    <t>www/graphics/awardlogos/PlayoffsMVP.png</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>7-6</t>
   </si>
 </sst>
 </file>
@@ -335,12 +428,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,23 +650,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="26" width="10.5" customWidth="1"/>
+    <col min="3" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="27" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -581,1105 +675,1220 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1">
         <v>2020</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1">
         <v>2020</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1">
         <v>2020</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1">
         <v>2020</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1">
         <v>2020</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1">
         <v>2020</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1">
         <v>2020</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1">
         <v>2020</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1">
         <v>2020</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <v>2020</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1">
         <v>2020</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1">
         <v>2020</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1">
         <v>2020</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1">
         <v>2020</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1">
         <v>2020</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1">
         <v>2020</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1">
         <v>2020</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1">
         <v>2020</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1">
         <v>2020</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1">
         <v>2020</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1">
         <v>2020</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1">
         <v>2020</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1">
         <v>2020</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <v>2020</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1">
         <v>2020</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1">
         <v>2021</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1">
         <v>2021</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1">
         <v>2021</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1">
         <v>2021</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>60</v>
+        <v>94</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1">
         <v>2021</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1">
         <v>2021</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1">
         <v>2021</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B39" s="1">
         <v>2021</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1">
         <v>2021</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1">
         <v>2021</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="1">
         <v>2021</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1">
         <v>2021</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1">
         <v>2021</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1">
         <v>2021</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="1">
         <v>2021</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="1">
         <v>2021</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="2" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="1">
         <v>2021</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="1">
         <v>2021</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D49" s="1"/>
       <c r="E49" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="1">
         <v>2021</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="2" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="1">
         <v>2021</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="1">
         <v>2021</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="1">
         <v>2021</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D53" s="1"/>
       <c r="E53" s="2" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="1">
         <v>2021</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="1">
         <v>2021</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="1">
         <v>2021</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G56" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1">
         <v>2021</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="1">
         <v>2021</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="1">
         <v>2021</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="D59" s="1"/>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>34</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/awards.xlsx
+++ b/data/awards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Insync/rmaxsm@umich.edu/Google Drive/FF/TRUFFLE/TRUFFLEdashGIT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E76C772-3F8A-4F4A-BFEC-AA8EC08E2E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF331C1-9D46-7841-B403-AE9B8C141884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,9 +216,6 @@
     <t>Rashaad Penny</t>
   </si>
   <si>
-    <t>Cordarelle Patterson</t>
-  </si>
-  <si>
     <t>Deebo Samuel</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
   </si>
   <si>
     <t>7-6</t>
+  </si>
+  <si>
+    <t>Cordarelle Patterson (FL)</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -666,7 +666,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1">
         <v>2020</v>
@@ -699,13 +699,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1">
         <v>2020</v>
@@ -722,13 +722,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1">
         <v>2020</v>
@@ -745,13 +745,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1">
         <v>2020</v>
@@ -768,13 +768,13 @@
         <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1">
         <v>2020</v>
@@ -791,7 +791,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
@@ -814,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="1">
         <v>2020</v>
@@ -837,7 +837,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1">
         <v>2020</v>
@@ -860,7 +860,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1">
         <v>2020</v>
@@ -883,10 +883,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1">
         <v>2020</v>
@@ -907,10 +907,10 @@
         <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1">
         <v>2020</v>
@@ -931,10 +931,10 @@
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>34</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1">
         <v>2021</v>
@@ -1297,13 +1297,13 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>54</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1">
         <v>2021</v>
@@ -1320,13 +1320,13 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>44</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1">
         <v>2021</v>
@@ -1343,13 +1343,13 @@
         <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>29</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1">
         <v>2021</v>
@@ -1366,13 +1366,13 @@
         <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>54</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1">
         <v>2021</v>
@@ -1389,7 +1389,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>59</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="1">
         <v>2021</v>
@@ -1412,7 +1412,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>60</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1">
         <v>2021</v>
@@ -1435,7 +1435,7 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>61</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="1">
         <v>2021</v>
@@ -1458,7 +1458,7 @@
         <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>62</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1">
         <v>2021</v>
@@ -1481,10 +1481,10 @@
         <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>18</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1">
         <v>2021</v>
@@ -1505,10 +1505,10 @@
         <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>21</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1">
         <v>2021</v>
@@ -1529,10 +1529,10 @@
         <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>21</v>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>26</v>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>18</v>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>18</v>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>21</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>21</v>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>34</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>26</v>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>26</v>
@@ -1761,13 +1761,13 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>18</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>21</v>

--- a/data/awards.xlsx
+++ b/data/awards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Insync/rmaxsm@umich.edu/Google Drive/FF/TRUFFLE/TRUFFLEdashGIT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF331C1-9D46-7841-B403-AE9B8C141884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECAE7F1-F6B5-0744-8B81-610C697D8C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,7 +653,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/awards.xlsx
+++ b/data/awards.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Insync/rmaxsm@umich.edu/Google Drive/FF/TRUFFLE/TRUFFLEdashGIT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECAE7F1-F6B5-0744-8B81-610C697D8C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0860FB8F-77C2-1440-AB24-B0CDD51B0B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$233</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="245">
   <si>
     <t>Season</t>
   </si>
@@ -42,9 +45,6 @@
     <t>TRUFFLE</t>
   </si>
   <si>
-    <t>Champion</t>
-  </si>
-  <si>
     <t>Clarkston Chuckers</t>
   </si>
   <si>
@@ -69,15 +69,9 @@
     <t>NN</t>
   </si>
   <si>
-    <t>ROY</t>
-  </si>
-  <si>
     <t>Mike Baker</t>
   </si>
   <si>
-    <t>MVP</t>
-  </si>
-  <si>
     <t>Dalvin Cook</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>MCM</t>
   </si>
   <si>
-    <t>LVP</t>
-  </si>
-  <si>
     <t>ELP</t>
   </si>
   <si>
@@ -138,9 +129,6 @@
     <t>Josh Allen</t>
   </si>
   <si>
-    <t>Kyler Murray (SF)</t>
-  </si>
-  <si>
     <t>Derrick Henry</t>
   </si>
   <si>
@@ -156,9 +144,6 @@
     <t>Stefon Diggs</t>
   </si>
   <si>
-    <t>DK Metcalf (FL)</t>
-  </si>
-  <si>
     <t>FRR</t>
   </si>
   <si>
@@ -174,12 +159,6 @@
     <t>Patrick Mahomes</t>
   </si>
   <si>
-    <t>Aaron Rodgers (SF)</t>
-  </si>
-  <si>
-    <t>Jonathan Taylor (FL)</t>
-  </si>
-  <si>
     <t>DeAndre Hopkins</t>
   </si>
   <si>
@@ -219,15 +198,9 @@
     <t>Deebo Samuel</t>
   </si>
   <si>
-    <t>Justin Herbert (SF)</t>
-  </si>
-  <si>
     <t>Austin Ekeler</t>
   </si>
   <si>
-    <t>Najee Harris (FL)</t>
-  </si>
-  <si>
     <t>Cooper Kupp</t>
   </si>
   <si>
@@ -237,9 +210,6 @@
     <t>Aaron Rodgers</t>
   </si>
   <si>
-    <t>Tom Brady (SF)</t>
-  </si>
-  <si>
     <t>Joe Mixon</t>
   </si>
   <si>
@@ -279,15 +249,9 @@
     <t>www/graphics/awardlogos/RFS.png</t>
   </si>
   <si>
-    <t>LeVeon Bell ($48)</t>
-  </si>
-  <si>
     <t>James Robinson ($4)</t>
   </si>
   <si>
-    <t>Darren Waller $24)</t>
-  </si>
-  <si>
     <t>www/graphics/teamlogos/CC.png</t>
   </si>
   <si>
@@ -384,7 +348,421 @@
     <t>7-6</t>
   </si>
   <si>
-    <t>Cordarelle Patterson (FL)</t>
+    <t>Derrick Henry *</t>
+  </si>
+  <si>
+    <t>Cooper Kupp *</t>
+  </si>
+  <si>
+    <t>Darren Waller ($24)</t>
+  </si>
+  <si>
+    <t>13-0</t>
+  </si>
+  <si>
+    <t>Alexandria Igloos</t>
+  </si>
+  <si>
+    <t>Alec Driesenga</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>AAH</t>
+  </si>
+  <si>
+    <t>Christian McCaffrey</t>
+  </si>
+  <si>
+    <t>Josh Jacobs</t>
+  </si>
+  <si>
+    <t>Antonio Brown</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>South Beach Papis</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>SBP</t>
+  </si>
+  <si>
+    <t>Max Smith</t>
+  </si>
+  <si>
+    <t>Saquon Barkley</t>
+  </si>
+  <si>
+    <t>Laurel Crest Blossoms</t>
+  </si>
+  <si>
+    <t>Alexandria Dragons</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>Todd Gurley</t>
+  </si>
+  <si>
+    <t>Kareem Hunt</t>
+  </si>
+  <si>
+    <t>Blake Bortles</t>
+  </si>
+  <si>
+    <t>Mike Evans</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>Dick Smith</t>
+  </si>
+  <si>
+    <t>Ezekiel Elliott</t>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>Louie Rogers</t>
+  </si>
+  <si>
+    <t>Cam Newton</t>
+  </si>
+  <si>
+    <t>Tim Hightower</t>
+  </si>
+  <si>
+    <t>Melvin Gordon</t>
+  </si>
+  <si>
+    <t>Lamar Jackson</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Michael Thomas</t>
+  </si>
+  <si>
+    <t>Chris Godwin</t>
+  </si>
+  <si>
+    <t>Julio Jones</t>
+  </si>
+  <si>
+    <t>George Kittle</t>
+  </si>
+  <si>
+    <t>Kenny Golladay</t>
+  </si>
+  <si>
+    <t>Aaron Jones</t>
+  </si>
+  <si>
+    <t>Deshaun Watson</t>
+  </si>
+  <si>
+    <t>Zach Ertz</t>
+  </si>
+  <si>
+    <t>Russell Wilson</t>
+  </si>
+  <si>
+    <t>Tom Brady</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Keenan Allen</t>
+  </si>
+  <si>
+    <t>Larry Fitzgerald</t>
+  </si>
+  <si>
+    <t>Rob Gronkowski</t>
+  </si>
+  <si>
+    <t>David Johnson</t>
+  </si>
+  <si>
+    <t>Drew Brees</t>
+  </si>
+  <si>
+    <t>Odell Beckham</t>
+  </si>
+  <si>
+    <t>Greg Olsen</t>
+  </si>
+  <si>
+    <t>GRR</t>
+  </si>
+  <si>
+    <t>LeSean McCoy</t>
+  </si>
+  <si>
+    <t>Devonta Freeman</t>
+  </si>
+  <si>
+    <t>TY Hilton</t>
+  </si>
+  <si>
+    <t>Adrian Peterson</t>
+  </si>
+  <si>
+    <t>Jordan Reed</t>
+  </si>
+  <si>
+    <t>Doug Martin</t>
+  </si>
+  <si>
+    <t>Allen Robinson</t>
+  </si>
+  <si>
+    <t>AJ Green</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/igloosold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/dragonsold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/blossoms1.png</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/blossoms2.png</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/roadrunners1.png</t>
+  </si>
+  <si>
+    <t>Le'Veon Bell ($48)</t>
+  </si>
+  <si>
+    <t>Le'Veon Bell</t>
+  </si>
+  <si>
+    <t>www/graphics/players/eelliottold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/mgordonold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/thightowerold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/cnewtonold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/dhopkinsold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/mevansold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/bbortlesold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/tgurleyold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/khuntold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/lbellold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/sbarkleyold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/pmahomesold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/jjacobsold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/abrownold.png</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/papis.png</t>
+  </si>
+  <si>
+    <t>McLean Marauders</t>
+  </si>
+  <si>
+    <t>Virginia Dragons</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/VD.png</t>
+  </si>
+  <si>
+    <t>www/graphics/teamlogos/MCM.png</t>
+  </si>
+  <si>
+    <t>Daniel Jones</t>
+  </si>
+  <si>
+    <t>Geno Smith ($25)</t>
+  </si>
+  <si>
+    <t>Matthew Stafford ($93)</t>
+  </si>
+  <si>
+    <t>www/graphics/players/djones.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/aekeler.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/mstafford.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/gsmith.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/NA.png</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>www/graphics/players/cmccaffreyold.png</t>
+  </si>
+  <si>
+    <t>Least Valuable Player</t>
+  </si>
+  <si>
+    <t>Rookie of the Year</t>
+  </si>
+  <si>
+    <t>Most Valuable Player</t>
+  </si>
+  <si>
+    <t>TRUFFLE Champion</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Kyler Murray</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Josh Jacobs *</t>
+  </si>
+  <si>
+    <t>Justin Jefferson *</t>
+  </si>
+  <si>
+    <t>Travis Kelce *</t>
+  </si>
+  <si>
+    <t>Kenneth Walker</t>
+  </si>
+  <si>
+    <t>Josh Jacobs ($59)</t>
+  </si>
+  <si>
+    <t>Justin Fields</t>
+  </si>
+  <si>
+    <t>AJ Brown</t>
+  </si>
+  <si>
+    <t>Amon-Ra St Brown</t>
+  </si>
+  <si>
+    <t>CeeDee Lamb</t>
+  </si>
+  <si>
+    <t>Jaylen Waddle</t>
+  </si>
+  <si>
+    <t>MAM</t>
+  </si>
+  <si>
+    <t>DK Metcalf</t>
+  </si>
+  <si>
+    <t>Justin Herbert</t>
+  </si>
+  <si>
+    <t>Cordarelle Patterson</t>
+  </si>
+  <si>
+    <t>Nick Chubb</t>
+  </si>
+  <si>
+    <t>Ezekiel Eliott</t>
+  </si>
+  <si>
+    <t>Dak Prescott</t>
+  </si>
+  <si>
+    <t>Matt Ryan</t>
+  </si>
+  <si>
+    <t>Adam Thielen</t>
+  </si>
+  <si>
+    <t>Ben Roethlisberger</t>
+  </si>
+  <si>
+    <t>Carson Wentz</t>
+  </si>
+  <si>
+    <t>Andrew Luck</t>
+  </si>
+  <si>
+    <t>Demaryius Thomas</t>
+  </si>
+  <si>
+    <t>www/graphics/players/jjacobs.png</t>
+  </si>
+  <si>
+    <t>www/graphics/players/kwalker.png</t>
+  </si>
+  <si>
+    <t>www/graphics/execs/louie.png</t>
+  </si>
+  <si>
+    <t>www/graphics/execs/gpa.png</t>
+  </si>
+  <si>
+    <t>www/graphics/execs/max.png</t>
+  </si>
+  <si>
+    <t>www/graphics/execs/alec.png</t>
+  </si>
+  <si>
+    <t>www/graphics/execs/tyler.png</t>
+  </si>
+  <si>
+    <t>www/graphics/execs/dreeric.png</t>
+  </si>
+  <si>
+    <t>www/graphics/execs/mike.png</t>
+  </si>
+  <si>
+    <t>Andreas Frame &amp; Eric Smith</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>GMs</t>
   </si>
 </sst>
 </file>
@@ -395,7 +773,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -404,6 +782,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -428,13 +812,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,8 +1037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -661,12 +1047,14 @@
     <col min="1" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="27" width="10.5" customWidth="1"/>
+    <col min="6" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" customWidth="1"/>
+    <col min="10" max="27" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
+      <c r="A1" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -675,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -689,1382 +1077,4688 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>83</v>
+      <c r="A2" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B2" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>206</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>117</v>
+        <v>48</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>91</v>
+      <c r="D3" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>118</v>
+        <v>189</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>92</v>
+      <c r="D4" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1"/>
       <c r="B14" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
       <c r="B15" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
       <c r="B17" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
       <c r="B18" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
       <c r="B19" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
       <c r="B25" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>51</v>
+        <v>218</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
       <c r="B28" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="1"/>
       <c r="B30" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G91" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E92" t="s">
+        <v>111</v>
+      </c>
+      <c r="F92" t="s">
+        <v>100</v>
+      </c>
+      <c r="G92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E93" t="s">
+        <v>114</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E95" t="s">
+        <v>114</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97" t="s">
+        <v>116</v>
+      </c>
+      <c r="F97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" t="s">
+        <v>140</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" t="s">
+        <v>141</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" t="s">
+        <v>142</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E109" t="s">
+        <v>146</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E110" t="s">
+        <v>145</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" t="s">
+        <v>144</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" t="s">
+        <v>57</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" t="s">
+        <v>143</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E118" t="s">
+        <v>47</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G118" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E120" t="s">
+        <v>118</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E121" t="s">
+        <v>121</v>
+      </c>
+      <c r="F121" t="s">
+        <v>100</v>
+      </c>
+      <c r="G121" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E123" t="s">
+        <v>122</v>
+      </c>
+      <c r="F123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E124" t="s">
+        <v>114</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E126" t="s">
+        <v>173</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="1" t="s">
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B127" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" t="s">
+        <v>42</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E130" t="s">
+        <v>126</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E131" t="s">
+        <v>122</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E134" t="s">
+        <v>142</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E135" t="s">
+        <v>39</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E138" t="s">
+        <v>146</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E139" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E140" t="s">
+        <v>132</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" t="s">
+        <v>116</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E142" t="s">
+        <v>35</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E143" t="s">
+        <v>129</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E144" t="s">
+        <v>147</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E147" t="s">
+        <v>123</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G147" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="5" t="s">
+      <c r="D148" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E149" t="s">
+        <v>124</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G149" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B150" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E150" t="s">
+        <v>131</v>
+      </c>
+      <c r="F150" t="s">
+        <v>100</v>
+      </c>
+      <c r="G150" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E151" t="s">
+        <v>126</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B152" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E152" t="s">
+        <v>127</v>
+      </c>
+      <c r="F152" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E153" t="s">
+        <v>128</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G153" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E155" t="s">
+        <v>129</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B157" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E158" t="s">
+        <v>148</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" t="s">
+        <v>126</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" t="s">
+        <v>173</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E161" t="s">
+        <v>43</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="F162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E163" t="s">
+        <v>151</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E164" t="s">
+        <v>153</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E167" t="s">
+        <v>149</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E168" t="s">
+        <v>20</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E169" t="s">
+        <v>137</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E170" t="s">
+        <v>142</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E171" t="s">
+        <v>140</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E172" t="s">
+        <v>152</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E173" t="s">
+        <v>39</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B176" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E176" t="s">
+        <v>123</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G176" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B177" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B178" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E178" t="s">
+        <v>124</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G178" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B179" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E179" t="s">
+        <v>131</v>
+      </c>
+      <c r="F179" t="s">
+        <v>100</v>
+      </c>
+      <c r="G179" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B180" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E180" t="s">
+        <v>132</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E181" t="s">
+        <v>132</v>
+      </c>
+      <c r="F181" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B182" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E182" t="s">
+        <v>132</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B183" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E184" t="s">
+        <v>43</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B185" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E187" t="s">
+        <v>59</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E188" t="s">
+        <v>154</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E189" t="s">
+        <v>132</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190" t="s">
+        <v>129</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E191" t="s">
+        <v>116</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E192" t="s">
+        <v>156</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E193" t="s">
+        <v>39</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E196" t="s">
+        <v>155</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E197" t="s">
+        <v>159</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E198" t="s">
+        <v>160</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" t="s">
+        <v>161</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E200" t="s">
+        <v>142</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E201" t="s">
+        <v>140</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E202" t="s">
+        <v>157</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G204" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="2" t="s">
+    </row>
+    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B205" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E205" t="s">
+        <v>124</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G205" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B206" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B207" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E208" t="s">
+        <v>134</v>
+      </c>
+      <c r="F208" t="s">
+        <v>100</v>
+      </c>
+      <c r="G208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B209" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E209" t="s">
+        <v>135</v>
+      </c>
+      <c r="F209" t="s">
+        <v>23</v>
+      </c>
+      <c r="G209" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B210" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E210" t="s">
+        <v>126</v>
+      </c>
+      <c r="F210" t="s">
+        <v>15</v>
+      </c>
+      <c r="G210" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B211" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E211" t="s">
+        <v>136</v>
+      </c>
+      <c r="F211" t="s">
+        <v>15</v>
+      </c>
+      <c r="G211" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B213" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E213" t="s">
+        <v>137</v>
+      </c>
+      <c r="F213" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B214" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B215" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E216" t="s">
+        <v>135</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E217" t="s">
+        <v>160</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E218" t="s">
+        <v>162</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E219" t="s">
+        <v>142</v>
+      </c>
+      <c r="F219" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="G219" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E220" t="s">
+        <v>116</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E221" t="s">
+        <v>43</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E222" t="s">
+        <v>153</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E225" t="s">
+        <v>149</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E226" t="s">
+        <v>164</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E227" t="s">
+        <v>126</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G227" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="2" t="s">
+    </row>
+    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E228" t="s">
+        <v>165</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="G228" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E229" t="s">
+        <v>166</v>
+      </c>
+      <c r="F229" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="G229" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E230" t="s">
+        <v>152</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="G230" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E231" t="s">
+        <v>163</v>
+      </c>
+      <c r="F231" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2" t="s">
+      <c r="G231" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G233" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
